--- a/ML_Prompt_Template.xlsx
+++ b/ML_Prompt_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub_Projects\KAGGLE\DSM_Kaggle_Playground_Competitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F958F787-FB9B-4F8F-B5DD-ED51F9A1FF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFB6E8A-72EC-4B91-81E9-8F7C61B0F12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51495" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="65895" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prompt" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>kunaalnaik.com</t>
   </si>
@@ -125,23 +125,126 @@
   </si>
   <si>
     <t>Columns within train data are as follows:</t>
+  </si>
+  <si>
+    <t>Season 3 Episode 24</t>
+  </si>
+  <si>
+    <t>Season 3 Episode 23</t>
+  </si>
+  <si>
+    <t>Season 3 Episode 22</t>
+  </si>
+  <si>
+    <t>Season 3 Episode 21</t>
+  </si>
+  <si>
+    <t>Season 3 Episode 20</t>
+  </si>
+  <si>
+    <t>Season 3 Episode 19</t>
+  </si>
+  <si>
+    <t>Season 3 Episode 18</t>
+  </si>
+  <si>
+    <t>Season 3 Episode 17</t>
+  </si>
+  <si>
+    <t>Season 3 Episode 16</t>
+  </si>
+  <si>
+    <t>Season 3 Episode 15</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>height(cm)</t>
+  </si>
+  <si>
+    <t>weight(kg)</t>
+  </si>
+  <si>
+    <t>waist(cm)</t>
+  </si>
+  <si>
+    <t>eyesight(left)</t>
+  </si>
+  <si>
+    <t>eyesight(right)</t>
+  </si>
+  <si>
+    <t>hearing(left)</t>
+  </si>
+  <si>
+    <t>hearing(right)</t>
+  </si>
+  <si>
+    <t>systolic</t>
+  </si>
+  <si>
+    <t>relaxation</t>
+  </si>
+  <si>
+    <t>fasting blood sugar</t>
+  </si>
+  <si>
+    <t>Cholesterol</t>
+  </si>
+  <si>
+    <t>triglyceride</t>
+  </si>
+  <si>
+    <t>HDL</t>
+  </si>
+  <si>
+    <t>LDL</t>
+  </si>
+  <si>
+    <t>hemoglobin</t>
+  </si>
+  <si>
+    <t>Urine protein</t>
+  </si>
+  <si>
+    <t>serum creatinine</t>
+  </si>
+  <si>
+    <t>AST</t>
+  </si>
+  <si>
+    <t>ALT</t>
+  </si>
+  <si>
+    <t>Gtp</t>
+  </si>
+  <si>
+    <t>dental caries</t>
+  </si>
+  <si>
+    <t>smoking</t>
+  </si>
+  <si>
+    <t>ROC Curve</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
   </si>
   <si>
     <t>Write a Python Machine Learning Code to use solve a Kaggle Competition. 
 Use train data to build the model and test data to make the predictions. 
+While making predictions exclude the columns not used while training. 
 Calculate the Evaluation Metric for train data. 
-Make submission file with the id from test data and predictions used from test data.
+Make submission file with the id column from test data and predictions used from test data.
 The Submission file should be "submission.csv"</t>
-  </si>
-  <si>
-    <t>Median Absolute Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +309,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -305,7 +414,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -319,6 +428,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="60% - Accent4" xfId="4" builtinId="44"/>
@@ -605,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,9 +739,9 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
@@ -640,34 +750,34 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <f>"Metric for Evaluation is "&amp;C5</f>
-        <v>Metric for Evaluation is Median Absolute Error</v>
+        <v>Metric for Evaluation is ROC Curve</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <f>"Model Name is "&amp;C6</f>
-        <v>Model Name is Regression</v>
+        <v>Model Name is Logistic Regression</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f>"Target Column is "&amp;C7</f>
-        <v>Target Column is Hardness</v>
+        <v>Target Column is smoking</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
-        <f>"Exclude Columns"&amp;C8</f>
-        <v>Exclude Columnsid</v>
+        <f>"Exclude Columns from train data only "&amp;C8</f>
+        <v>Exclude Columns from train data only id</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
@@ -685,62 +795,117 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -751,83 +916,216 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3C0DC5-1267-46A3-8BCF-E59CEA0B6CBB}">
-  <dimension ref="A2:A14"/>
+  <dimension ref="B1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>